--- a/medicine/Mort/Cimetière_nouveau_de_Vitry-sur-Seine/Cimetière_nouveau_de_Vitry-sur-Seine.xlsx
+++ b/medicine/Mort/Cimetière_nouveau_de_Vitry-sur-Seine/Cimetière_nouveau_de_Vitry-sur-Seine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Vitry-sur-Seine</t>
+          <t>Cimetière_nouveau_de_Vitry-sur-Seine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière nouveau de Vitry-sur-Seine est un des cimetières communaux de la commune de Vitry-sur-Seine, dans le département du Val-de-Marne[1]. Il est situé rue du Général-Malleret-Joinville.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière nouveau de Vitry-sur-Seine est un des cimetières communaux de la commune de Vitry-sur-Seine, dans le département du Val-de-Marne. Il est situé rue du Général-Malleret-Joinville.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Vitry-sur-Seine</t>
+          <t>Cimetière_nouveau_de_Vitry-sur-Seine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière nouveau comprend deux zones d'inhumation pour un total de 12000 concessions réparties en 22 divisions: Une des zones est dite en terrain commun, gratuite pour 5 ans, l'autre en en terrains concédés.
 Sa superficie est de 6.5 hectares.
-La commune  de Vitry-sur-Seine est membre du Syndicat intercommunal funéraire de la région parisienne[2].
+La commune  de Vitry-sur-Seine est membre du Syndicat intercommunal funéraire de la région parisienne.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Vitry-sur-Seine</t>
+          <t>Cimetière_nouveau_de_Vitry-sur-Seine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La création de ce cimetière remonte à 1935[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La création de ce cimetière remonte à 1935.
 Le 27 avril 1944, lors du bombardement du centre de triage ferroviaire de Villeneuve-Saint-Georges par la RAF, une bombe tomba sur l'emplacement du nouveau cimetière municipal.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Vitry-sur-Seine</t>
+          <t>Cimetière_nouveau_de_Vitry-sur-Seine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Boudou (1923-1944), fusillé sommairement par les Allemands le 20 août 1944 à Vitry-sur-Seine[4].
-Lionel D (1961-2020), animateur de radio et rappeur[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Boudou (1923-1944), fusillé sommairement par les Allemands le 20 août 1944 à Vitry-sur-Seine.
+Lionel D (1961-2020), animateur de radio et rappeur.
 </t>
         </is>
       </c>
